--- a/DatabaseOptiSync.xlsx
+++ b/DatabaseOptiSync.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\Desktop\Optysink\Stremline-Process-ERP-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2334D852-2882-4A9B-9BB8-E1013C964D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0BD71D7D-D09C-4BEA-BB66-D5A001B7B73B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="151">
   <si>
     <t>rar_material</t>
   </si>
@@ -383,13 +377,118 @@
   </si>
   <si>
     <t xml:space="preserve">id            </t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Company_name</t>
+  </si>
+  <si>
+    <t>contact_no</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>date_of_registration</t>
+  </si>
+  <si>
+    <t>Payment_Status</t>
+  </si>
+  <si>
+    <t>Plan_StartDate</t>
+  </si>
+  <si>
+    <t>Plan_EndDate</t>
+  </si>
+  <si>
+    <t>Admin_Approval_Status</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Client_ID</t>
+  </si>
+  <si>
+    <t>Client_Name</t>
+  </si>
+  <si>
+    <t>Approval Send to Manager</t>
+  </si>
+  <si>
+    <t>Awaiting Approval</t>
+  </si>
+  <si>
+    <t>Approved by manager</t>
+  </si>
+  <si>
+    <t>Status_Dispatch</t>
+  </si>
+  <si>
+    <t>Dispatch_Status</t>
+  </si>
+  <si>
+    <t>Product_Ready</t>
+  </si>
+  <si>
+    <t>Status_ID</t>
+  </si>
+  <si>
+    <t>Status_Meaning</t>
+  </si>
+  <si>
+    <t>Master_Vendor</t>
+  </si>
+  <si>
+    <t>Vendor_ID</t>
+  </si>
+  <si>
+    <t>Vendor_Name</t>
+  </si>
+  <si>
+    <t>Part_Name</t>
+  </si>
+  <si>
+    <t>modeOfTransaction</t>
+  </si>
+  <si>
+    <t>Forget_Pass_Status</t>
+  </si>
+  <si>
+    <t>Vendor_Mappig</t>
+  </si>
+  <si>
+    <t>Company_ID</t>
+  </si>
+  <si>
+    <t>Dispatched</t>
+  </si>
+  <si>
+    <t>Forward_Entity</t>
+  </si>
+  <si>
+    <t>Forwad_table</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Dispatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -484,11 +583,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -522,12 +632,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +704,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -640,7 +756,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -834,21 +950,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457FD7A2-55D9-40BE-8AB8-31223ABDF7DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:Q193"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C37"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -864,7 +980,7 @@
     <col min="17" max="17" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -894,7 +1010,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -936,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -973,7 +1089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1012,7 +1128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
@@ -1051,7 +1167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
@@ -1084,7 +1200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1109,7 +1225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="H11" s="14" t="s">
         <v>23</v>
       </c>
@@ -1127,7 +1243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
@@ -1164,7 +1280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="B14" s="7" t="s">
         <v>60</v>
       </c>
@@ -1184,7 +1300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
@@ -1204,7 +1320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" s="10" t="s">
         <v>49</v>
       </c>
@@ -1225,7 +1341,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="7" t="s">
         <v>48</v>
       </c>
@@ -1247,7 +1363,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
@@ -1272,7 +1388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -1297,7 +1413,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
@@ -1326,7 +1442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -1352,11 +1468,11 @@
       <c r="N21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
@@ -1377,9 +1493,9 @@
       <c r="N22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q22" s="23"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q22" s="25"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="7" t="s">
         <v>77</v>
       </c>
@@ -1402,7 +1518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="C24" t="s">
         <v>80</v>
       </c>
@@ -1411,7 +1527,7 @@
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="7"/>
       <c r="C25" s="16" t="s">
         <v>81</v>
@@ -1420,18 +1536,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="C26" s="16"/>
       <c r="H26" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="H27" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="19" t="s">
         <v>84</v>
       </c>
@@ -1445,7 +1561,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="20" t="s">
         <v>1</v>
       </c>
@@ -1459,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="20" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="C31" s="20" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1494,7 +1610,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6">
       <c r="C33" s="20" t="s">
         <v>87</v>
       </c>
@@ -1503,7 +1619,7 @@
       </c>
       <c r="F33" s="20"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6">
       <c r="C34" s="20" t="s">
         <v>88</v>
       </c>
@@ -1512,7 +1628,7 @@
       </c>
       <c r="F34" s="20"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6">
       <c r="C35" s="20" t="s">
         <v>89</v>
       </c>
@@ -1521,7 +1637,7 @@
       </c>
       <c r="F35" s="20"/>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6">
       <c r="C36" s="20" t="s">
         <v>90</v>
       </c>
@@ -1530,7 +1646,7 @@
       </c>
       <c r="F36" s="20"/>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:6">
       <c r="C37" s="20" t="s">
         <v>105</v>
       </c>
@@ -1538,7 +1654,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="5:5">
       <c r="E193" t="s">
         <v>86</v>
       </c>
@@ -1553,14 +1669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9DECFE-F718-4474-8AEC-1159684873F4}">
-  <dimension ref="A2:P42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -1569,18 +1685,18 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" s="22" customFormat="1" ht="21">
       <c r="A3" s="21" t="s">
         <v>96</v>
       </c>
@@ -1600,12 +1716,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
@@ -1621,8 +1737,14 @@
       <c r="I7" s="20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -1653,8 +1775,14 @@
       <c r="J8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -1673,8 +1801,14 @@
       <c r="J9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
@@ -1690,17 +1824,16 @@
       <c r="I10" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="K10" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="C11" s="11"/>
       <c r="D11" t="s">
         <v>112</v>
       </c>
@@ -1719,8 +1852,9 @@
       <c r="I11" s="20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -1736,7 +1870,7 @@
       <c r="E12" s="11"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="10" t="s">
         <v>9</v>
       </c>
@@ -1755,27 +1889,28 @@
       <c r="K15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15" s="19" t="s">
+      <c r="M15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="Q15" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
@@ -1799,68 +1934,64 @@
       <c r="L16" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" t="s">
-        <v>113</v>
-      </c>
-      <c r="O16" s="20" t="s">
+      <c r="M16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q16" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="G17" s="13"/>
+      <c r="I17" s="14"/>
       <c r="K17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="L17" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" t="s">
-        <v>112</v>
-      </c>
-      <c r="O17" s="20" t="s">
+      <c r="M17" s="28">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="P17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F18" t="s">
@@ -1884,25 +2015,30 @@
       <c r="L18" t="s">
         <v>112</v>
       </c>
-      <c r="M18" s="20"/>
-      <c r="O18" s="20" t="s">
+      <c r="M18" s="28">
+        <v>2</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -1917,25 +2053,28 @@
       <c r="J19" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="20"/>
-      <c r="O19" s="20" t="s">
+      <c r="K19" s="14"/>
+      <c r="M19" s="28">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="P19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -1947,24 +2086,24 @@
       <c r="K20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" t="s">
-        <v>112</v>
-      </c>
-      <c r="O20" s="20" t="s">
+      <c r="M20" s="28">
+        <v>4</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="C21" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F21" t="s">
@@ -1979,27 +2118,27 @@
       <c r="K21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" t="s">
-        <v>112</v>
-      </c>
-      <c r="O21" s="20" t="s">
+      <c r="M21" s="28">
+        <v>5</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q21" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>6</v>
       </c>
       <c r="F22" t="s">
@@ -2014,24 +2153,22 @@
       <c r="K22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="O22" s="20" t="s">
+      <c r="M22" s="2"/>
+      <c r="Q22" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
@@ -2043,14 +2180,13 @@
       <c r="K23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="O23" s="20" t="s">
+      <c r="M23" s="2"/>
+      <c r="Q23" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
+      <c r="A24" s="29"/>
       <c r="G24" s="7" t="s">
         <v>22</v>
       </c>
@@ -2060,20 +2196,26 @@
       <c r="K24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="O24" s="20" t="s">
+      <c r="M24" s="2"/>
+      <c r="Q24" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
+      <c r="A25" s="29"/>
       <c r="G25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I25" s="30"/>
+      <c r="K25" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="29"/>
+      <c r="E26" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="G26" s="7" t="s">
         <v>114</v>
       </c>
@@ -2081,136 +2223,153 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
-        <v>57</v>
-      </c>
+    <row r="27" spans="1:18">
+      <c r="D27" s="27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" s="3"/>
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.6">
+      <c r="B30" s="3"/>
       <c r="C30" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>49</v>
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>149</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="26"/>
+      <c r="K30" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
+    <row r="31" spans="1:18">
+      <c r="B31" s="3"/>
       <c r="C31" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" t="s">
-        <v>111</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="G31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H31" t="s">
         <v>111</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="I31" s="2"/>
+      <c r="K31" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="B32" s="3"/>
       <c r="C32" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="G32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" t="s">
-        <v>112</v>
-      </c>
+      <c r="I32" s="2"/>
+      <c r="K32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" s="3"/>
       <c r="C33" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="E33" s="2"/>
       <c r="G33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
+      <c r="I33" s="2"/>
+      <c r="K33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" s="3"/>
       <c r="C34" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="E34" s="2"/>
       <c r="G34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H34" t="s">
         <v>112</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="26" t="s">
+      <c r="I34" s="2"/>
+      <c r="K34" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E36" s="7" t="s">
-        <v>43</v>
+      <c r="E35" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="I35" s="2"/>
+      <c r="K35" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="E36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>111</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>108</v>
@@ -2218,63 +2377,95 @@
       <c r="H36" t="s">
         <v>112</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="I36" s="2"/>
+      <c r="K36" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="27"/>
+      <c r="B37" s="3"/>
+      <c r="E37" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="K37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M37" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="K38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="K39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="K40" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M40" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:14">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="K41" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M41" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:14">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="K42" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M42" s="7" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="4"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>